--- a/medicine/Mort/Cimetière_du_choléra_de_Świnia_Góra/Cimetière_du_choléra_de_Świnia_Góra.xlsx
+++ b/medicine/Mort/Cimetière_du_choléra_de_Świnia_Góra/Cimetière_du_choléra_de_Świnia_Góra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_%C5%9Awinia_G%C3%B3ra</t>
+          <t>Cimetière_du_choléra_de_Świnia_Góra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du choléra de Swiniej Góra est un cimetière du choléra de la municipalité de Masłów, dans le powiat de Kielce, établi dans la seconde moitié du XIXe siècle. Des personnes mortes du choléra à Masłów, Dąbrowa, Wola Kopcowa et Kielce y ont été enterrées. Environ 500 personnes y sont enterrées.
 </t>
